--- a/Data/DCT121C2.xlsx
+++ b/Data/DCT121C2.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trần Văn Hương</t>
+          <t>Trần Văn Hoàng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -517,7 +517,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -533,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phạm Thị Nam</t>
+          <t>Phạm Thị An</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Hải</t>
+          <t>Nguyễn Minh Sử</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,11 +581,7 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vũ Quốc Mai</t>
+          <t>Vũ Quốc Ca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,11 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -627,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Đặng Anh Dũng</t>
+          <t>Đặng Anh Thi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -657,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Trần Thị Hùng</t>
+          <t>Trần Thị Quốc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lê Minh Dũng</t>
+          <t>Lê Minh Hùng</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -717,7 +721,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vũ Văn Mai</t>
+          <t>Vũ Văn Chí</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -747,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nguyễn Quốc Linh</t>
+          <t>Nguyễn Quốc Linh Đan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,7 +765,11 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -777,7 +785,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Phạm Văn Mai</t>
+          <t>Phạm Văn Nguyên</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -790,11 +798,7 @@
           <t>12-12-2003</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -811,7 +815,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bùi Minh Hương</t>
+          <t>Bùi Minh Nhật</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -841,7 +845,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Phạm Minh Hùng</t>
+          <t>Phạm Minh Chính</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -871,7 +875,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đặng Gia Dũng</t>
+          <t>Đặng Gia Bảo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -901,7 +905,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Nam</t>
+          <t>Nguyễn Văn Kiệt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -931,7 +935,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Đặng Gia Lan</t>
+          <t>Đặng Gia Lan Anh</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -961,7 +965,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lê Quốc Nam</t>
+          <t>Lê Quốc Nam Cường</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -991,7 +995,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Phạm Thị Hùng</t>
+          <t>Phạm Thị Mai</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1021,7 +1025,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Đặng Quốc Mai</t>
+          <t>Đặng Quốc Tuấn</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,7 +1039,11 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1051,7 +1059,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lê Hồng Nam</t>
+          <t>Lê Hồng Anh</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1081,7 +1089,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Phạm Hồng Hương</t>
+          <t xml:space="preserve">Phạm Hồng </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1111,7 +1119,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lê Anh Lan</t>
+          <t>Lê Anh Thư</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1141,7 +1149,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trần Quốc Nam</t>
+          <t>Trần Quốc Toản</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1171,7 +1179,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vũ Gia Lan</t>
+          <t>Vũ Gia Dụng</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1201,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Vũ Gia Dũng</t>
+          <t>Vũ Gia Bảo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1231,7 +1239,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Đặng Quốc Lan</t>
+          <t>Đặng Quốc Trung</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1261,7 +1269,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Hải</t>
+          <t>Nguyễn Hồng Hải Yến</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1291,7 +1299,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Đặng Thị Hùng</t>
+          <t>Đặng Thị Trúc Ly</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1305,7 +1313,11 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1321,7 +1333,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bùi Văn Hải</t>
+          <t>Bùi Văn Công</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1351,7 +1363,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nguyễn Minh Hương</t>
+          <t>Nguyễn Minh Công</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1381,7 +1393,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Hải</t>
+          <t>Nguyễn Hồng Hải Âu</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
